--- a/500all/speech_level/speeches_CHRG-114hhrg23565.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg23565.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="264">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400646</t>
   </si>
   <si>
-    <t>Michael G. Fitzpatrick</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Fitzpatrick. The Task Force to Investigate Terrorism Financing will come to order. The title of today's hearing is, ``Trading with the Enemy: Trade-Based Money Laundering is the Growth Industry in Terror Finance.''    Without objection, the Chair is authorized to declare a recess of the task force at any time.    The Chair now recognizes himself for 3 minutes for an opening statement.    On March 25, 2015, under the leadership of Chairman Jeb Hensarling, the House Committee on Financial Services adopted a resolution creating the Task Force to Investigate Terrorism Financing. The aim of this task force has been to assess the effectiveness of our current money-laundering and counter-terror finance efforts and tools when faced with a world containing new and evolving threats.    With Ranking Member Stephen Lynch, Vice Chair Robert Pittenger, and a bipartisan group of 21 Members, the Task Force has been able to conduct five hearings, and several briefings and information sessions, as well as a CODEL to meet with regional partners and discuss their efforts to counter terrorism financing.    The initial 6 months of operation shed significant light on multiple issues with regards to counter-threats finance and anti-money laundering initiatives. First was the discovery of the various revenue streams ISIS utilizes to fund its terror operation, and the ways in which the United States may effectively counter them, such as continuing to target ISIS oil infrastructure, working with regional allies to close porous borders, and a better police to travel with foreign fighters.    Second, the task force brought about a consensus that there is a need for greater information-sharing throughout the financial system and between government agencies, as well as an increased integration of government databases. Finally, it became evident through witness testimony and numerous briefings, that Congress needs to act on beneficial ownership and to provide the appropriate agencies sufficient resources to address current challenges.    Building on what we know and have learned, this session will take a much closer look at several lesser-known methodologies that have been mentioned in previous briefings and hearings, including trade-based money laundering, terror-funding streams from Latin America, developing our regional partners' capabilities to combat terror financing, and the funding of foreign-based terrorists.    Today, we aim to take a closer look at trade-based money laundering, the process of disguising the proceeds of crime and moving value through the use of trade transactions in an attempt to legitimize their illicit origins. This practice allows hundreds of billions of dollars to be laundered annually and cannot be allowed to continue.    It is our hope that with the help of our expert witnesses, this body will walk away with a better understanding of the problem as well as an effective measure to curb and combat this practice. On Monday, DEA and European authorities were able to uncover a massive Hezbollah drug and money-laundering scheme that was intent on providing financial assets to militants in Syria. This development depicts the scale of this problem and the urgent need to devote more focus towards it.    Unless there is any objection, I will ask for unanimous consent to put this DEA release into the record.    Without objection, it is so ordered. This hearing marks the beginning of another 6 months of investigation, and an additional step towards snuffing out the resources necessary for these nefarious groups to grow and to thrive.    I now recognize for an opening statement the ranking member of the task force, the gentleman from Massachusetts, Mr. Lynch.</t>
   </si>
   <si>
     <t>400249</t>
   </si>
   <si>
-    <t>Stephen F. Lynch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman, and I thank Chairman Hensarling, Ranking Members Water, and Vice Chair Pittenger for holding today's hearing. I also want to thank our witnesses for helping this task force with its important work. This hearing will give us a much-needed opportunity to examine the trade-based money laundering nexus to terrorism financing.    Trade-based money laundering involves using trade and products or commodities for value in order to divert and obscure the true nature of illicit wealth. Currently, there is ample opportunity for terrorist groups to exploit the international trade system, with low risk of being caught. According to the Financial Action Task Force (FATF), key characteristics of the international trade system, including the enormous volume of trade flows and the complexity therein, can arise from the practice of co-mingling illicit funds with the cash flows of legitimate businesses, and the limited recourse to verification procedures or programs to exchange customs data between countries, have made it both attractive and vulnerable to illicit exploitation.    A few years ago my colleagues at FinCEN briefed me on an elaborate trade-based money laundering scheme that was linked to the terrorist organization Hezbollah. Under the scheme, the Lebanese-Canadian Bank and multiple foreign-exchange houses facilitated the laundering of South American drug proceeds through the Lebanese financial system and through trade-based money laundering schemes involving cars and consumer goods. Cars would be purchased in the United States and shipped to Senegal and other areas of West Africa. The proceeds from the car sales would be funneled back to Lebanon through bulk cash deposits among conspiring exchange houses.    Now as the Chair has noted, we are back at it again with the Lebanese-Canadian bank, and the same stream of illicit funding has been encountered again. I note that our witnesses, Lou Bock and John Cassara, suggested that a network of global trade transparency units (TTUs) would help us bring the opaque system used by Hezbollah and many others into the light of day, and I am inclined to agree.    The United States is already at the forefront of trade transparency. In 2004, the United States created the first transparency unit within the Department of Homeland Security to analyze data in order to identify global trade-based money laundering trends. A further expansion of TTUs would allow the United States to trade paperwork and set international standards for trade.    And as Lou Bock and John Cassara propose, we need a system of TTUs that is analogous to the Egmont Group's financial intelligence units. I am happy to see that Dr. Nikos Passas of Northeastern is with us today, and he recommends highly that we need to collect this data in one place so it can be easily analyzed.    So in closing, I just appreciate the work of the Chair and the Vice Chair, and the work of our witnesses as well. This is important work that needs to be addressed.    I would like to yield 1 minute to the ranking member of the full Financial Services Committee, Ms. Maxine Waters.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412509</t>
   </si>
   <si>
-    <t>Kyrsten Sinema</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Sinema. Thank you, Chairman Fitzpatrick, and Ranking Member Lynch. Arizona's top export market is Mexico, and cross-border trade is essential to our economy. Despite its importance to Arizona's economy, cross-border trade is often used to facilitate international money laundering. For the past 20 years, official figures put Mexican exports to America well above American imports from Mexico. According to Global Financial Integrity, the discrepancy can be attributed to Mexican groups using trade-based money laundering to bring dollars into Mexico.    We need to find ways to stop trade-based money laundering, while promoting the efficient and cost-effective movement of goods and services across borders. Given the volume and complexity of trade-based money laundering, how can we do more to counter the misuse of international commerce and the threat it poses to our national security? How can we address this national security threat without limiting access to banking services for legitimate enterprises in border States like mine? I look forward to hearing more from our witnesses today about how we can better combat international money laundering without creating costly red tape and inhibit commercial trade flows.    Thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>412551</t>
   </si>
   <si>
-    <t>Robert Pittenger</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pittenger. Thank you, Chairman Fitzpatrick, and thank you to Chairman Hensarling and Ranking Member Waters, and I particularly want to thank Ranking Member Lynch of this task force for its continued dedication to these issues and all the Members who have committed their time and efforts in this important work. And thank you to the witnesses who have come and brought their experience to this task force.    Criminal enterprises have relied on this method of illicit financing for years. However, many believe that this is an emerging technique now being used by terrorist groups to finance their violent and oppressive operations.    With over $100 billion flowing in Iran, the world's largest state sponsor of terror, the risk of terror financing has never been greater. Similarly, the Administration has done nothing to diminish the number of ISIS soldiers on the battlefield in Iraq and Syria. ISIS members have remained consistently 20,000 to 30,000 soldiers for the past several years despite over 10,000 Saudi air strikes.    Since we have not removed ISIS from the battlefield, they will continue to require resources to fund their oppression. As we enter into the new year, Congress should prioritize efforts to stop the flow of money and resources to terrorist organizations. We must ensure that organizations like the Financial Crimes Enforcement Network (FinCEN) receive the resources and intelligence necessary to combat trade-based money laundering and other methods of illicit financing.    With that, I thank the Chair and the ranking member once again, and I yield back.</t>
   </si>
   <si>
@@ -97,9 +85,6 @@
     <t>412578</t>
   </si>
   <si>
-    <t>Roger Williams</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Williams. Thank you, Chairman Fitzpatrick, and thanks to all of the witnesses today for being here. As previous task force hearings have explored, the use of trade to launder money is nothing new and is most definitely on the rise. Although trade-based money laundering is widely recognized as one of the most common ways terrorist organizations seek funding, it is my hope that this task force continues to explore solutions to an ever-growing problem that often hits too close to home.    When I talk about that, I am talking about my home. As a second generation auto dealer, my industry has not been immune to trade-based money laundering. Through the sale of used cars as well as other legitimate products, terrorist organization have funneled billions of dollars through U.S. markets.    While many high-profile cases have been discussed in prior hearings, criminal organizations will continue to exploit new methods when it comes to laundering money unless strict government oversight enforcement is improved.    It is my belief that this task force has an important role to play in the combating of terrorist financing, and I look forward to hearing from our witnesses on how best to do it, and especially on how my industry can do what they need to do to stop it. So thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
@@ -115,36 +100,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Cassara</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cassara. Good morning. Chairman Fitzpatrick, Ranking Member Lynch, and members of the task force, thank you for the opportunity to testify today. It is an honor for me to be here. Not long after the September 11th attacks, I had a conversation with a Pakistani entrepreneur. This businessman could charitably be described as being involved in international gray markets and illicit finance.    We discussed many of the subjects addressed in this hearing including trade-based money laundering, terror finance, value transfer, hawala, fictitious invoicing, counter-valuation, and others. At the end of the discussion he looked at me and he said, ``Mr. John, don't you know that your adversaries are transferring money and value right under your noses? But the West doesn't see it. Your enemies are laughing at you.''    That businessman knew that the United States and the international community had devoted attention, countermeasures, and resources to counter a variety of money laundering and terror finance methodologies. However, trade-based money laundering (TBML) for the most part has been ignored. TBML is defined as the process of disguising the proceeds of crime and moving value through the use of trade transactions in an attempt to legitimize their illicit origins.    The key word in that definition is ``value.'' The magnitude of TBML has never been systematically examined. Nevertheless, one academic study examining the 2013 U.S. trade data found that almost $220 billion of the illicit value was moved out of the United States in the form of value transfer. That figure represents almost 6 percent of U.S. trade.    Approximately $340 billion was moved into the country via suspect trade transactions representing about 9 percent of U.S. trade. TBML is also involved with tax evasion, export incentive fraud, VAT fraud, capital flight or the transfer of wealth offshore, evading capital controls, barter trade, underground financial systems such as fei-chien, the Chinese flying money system, the black market peso exchange and commercial trade-based money laundering such as trade diversion, transfer pricing, and abusive trade misincoming.    In discussing terror finance, TBML is also intertwined with hawala, the misuse of the Afghan transit trade, Iran and Dubai commercial connections, the tri-border region in South America, suspect international Lebanese-Hezbollah trading syndicates, non-bank lawless regimes such as those in Somalia and Libya, the ISIS regime in Syria and Iraq, and many more.    So considering all of its varied forms, I can make the argument that trade-based money laundering is perhaps the largest and most pervasive money laundering methodology in the world. Unfortunately, it is also the least understood, recognized, and enforced. In its primary form, TBML revolves around invoice fraud and the associated manipulation of supporting documents. The primary techniques are over- and under-invoicing of goods, multiple invoicing of goods, and falsely described goods.    For example, did you know that we are importing plastic buckets from the Czech Republic and each bucket costs $972? Do you know that we are importing toilet tissue from China at the price of over $4,000 a kilogram? And that we are exporting live cattle to Mexico at $20 a head? Because of the magnitude of U.S. and global merchandise trade, these transactions and millions of others like them are not recognized, and simply get comingled.    Successful enforcement efforts are practically nil. Nevertheless, I am hopeful. First of all, theoretically, international trade transparency can be achieved because of the exponential growth in data and the incredible advances in analytics. I am also optimistic because trade transparency is also a revenue enhancer. I have found that the carrot of empowering our partners to strive for trade transparency and increased revenue can be much more effective than the stick of heavy-handed measures that have proven to be unsuccessful.    I have a number of recommendations in my written statement, and in my new book, ``Trade-Based Money Laundering: The Next Frontier in International Money Laundering Enforcement.'' These include reaching a consensus on the magnitude of the problem, a Financial Action Task Force recommendation on TBML, and supporting the trade transparency unit initiative.    Thank you, and I would be very happy to answer any questions you may have.    [The prepared statement of Mr. Cassara can be found on page 67 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Fitzpatrick. Thank you, Mr. Cassara.    Mr. Bock, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Bock</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bock. Good morning. I would also like to thank the chairman and the members of the task force for this opportunity. I appreciate your interest in the program that I have helped to develop for the past 25 years.    My name is Lou Bock, and I am a retired Senior Special Agent who worked as an investigator with DEA and USDA, later at Customs, which later became ISDHA. I worked on and supervised financial fraud and intelligence programs. For much of my career, I generated and worked large, complicated criminal cases involving trade fraud and money laundering schemes totaling billions of dollars.    I did so with the help of a team of import and tax specialists, agents, and analysts. We identified patterns of criminal behavior that stretched across large volumes of trade and financial data. The software methodology that my team and I pioneered was successfully deployed in over two dozen countries.    This led, with the insight and vision of John Cassara, to the development of trade transparency units (TTUs). I believe that TTUs have veered from their initial financial and Customs focus in part because of the changing culture within the Department of Homeland Security. Cassara writes in his book, ``Trade Based Money Laundering,'' that the forced merger with the former INS, and expansion of Customs missions into immigration enforcement, has not been successful.    Its expertise, skill sets, budgets, and staffing were deluded. The resulting dysfunction within the DHS has been less well-documented. DHS has neither the Customs nor financial expertise to make the TTU a success. The loser here is our ability to tackle trade-based money laundering and trade and tax revenue loss on a grand scale.    It is a missed opportunity to target funds belonging to terrorist groups such as ISIS, which necessarily do participate in their local trade. What is needed in support of a TTU? Detailed transactional import and export data, as well as records of the movement of money for the United States and partner nations.    Movement of trade goods should include bills of lading and manifest records for both imports and exports of the United States. Intermediate container movements, which are readily available, are also useful. ESA data which includes suspicious activity reports will greatly enhance the targeting veracity of the items mentioned above.    At present, the existing DHS TTU's attention is focused 90 percent on South America. That perhaps makes some sense given that DHS' focus is on immigration and drugs. However, I believe this view does little to attack current evolving terrorist threats. The real money flowing to ISIS involves trade from the Middle East, Europe and including Turkey.    With the proper focus on terrorist financing and trade-based money laundering, housed in a financial organization such as FinCEN, which has existing agreements with revenue agencies, we can make a serious dent in the core funding sources of entities such as ISIS.    I recommend the creation of a reinvigorated TTU with an associated budget line from Customs. I also think that a TTU should be housed at FinCEN under Treasury. Treasury is an agency capable of addressing the nexus of trade-based money laundering and tax revenue loss within the existing international agreements.    I believe DHS ICE is not a revenue agency and the Treasury Department is. Giving FinCEN this focus immediately, and full access to the necessary trade data, is the obvious next step, whatever the eventual status of the TTU initiative is within     Let's return to our earlier vision: focus and effectiveness, built on a rapidly increasing number of TTUs analogous to the Egmont Group's financial intelligence units.    I would like to get back on track with this. Thank you for listening.    [The prepared statement of Mr. Bock can be found on page 42 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Fitzpatrick. Mr. Mesko, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Mesko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mesko. Chairman Fitzpatrick, Ranking Member Lynch, and members of the task force, I want to thank you for the opportunity to be here today. I want to dive deeper into the real-world example of Hezbollah terror financing through TBML. It was referenced in the opening statements by the Members.    I want to do so in order to illustrate some of the challenges and opportunities in targeting these schemes. 2011 is part of a larger sanctions package. U.S. regulators and law enforcement identified a Cotonou Benin-based group of import-export companies known as the Alissa Group that dealt primarily in used-car imports into West Africa from the United States, Canada, and Europe.    Treasury data from the original 2011 action indicates that at least 6 of the sanctioned companies shared an address in Cotonou. Several also shared the same phone number and key personnel.    We went to the public records in the Chamber of Commerce in Cotonou and Benin, and found that another company co-located with the Alissa Group at the time of the original 2011 designation was Ramadi SRL. And further, that a new company, Abou Merhi Lines began to use the same shared address and phone number shortly after the 2011 sanctions designation.    It took 2 more years to identify the Ramadi SRL as a participant in the original scheme. And 2013 FinCEN 311 designation. It took another 2 years on top of that to identify and sanction Abou Merhi Lines in 2015. These entities were operating for years out of the same location in Benin, with the same address, and the same phone number, by the same key people.    What I haven't mentioned so far is that in addition to the Ramadi SRL and Abou Merhi Lines, public data shows that at least five other companies and two individuals were and possibly continue to be active at the shared Alissa Group address in Benin, in some cases listed in care of Alissa Group on their public documents and operating in the used vehicle trade.    I share this example because it illustrates several key points about detecting and deterring trade-based money laundering.    First, that sanctions, 311 actions, and indictments are a starting point and not an endpoint in the government's efforts to target money launderers and terror financiers. Networks change over time but they rarely go away, and TBML networks in particular often leave a large footprint companies and individuals as a result of their efforts to seem legitimate.    Working in our favor, more often than not there is a trail leading back from these seemingly legitimate entities to already known and already identified illicit actors. The data to help us draw these connections is often publicly available. It may not be easy to find, but it is out there.    Working against us, however, is the fact that the types of relationships that we should be concerned about within a network don't always comport with the types of relationships that regulators have told banks, insurance companies, and the transportation sector that they need to be concerned about.    This is an area where I think the task force could have real impact, and the clearest example in my mind is that of the singular focus on majority ownership by Treasury's Office of Foreign Assets Control (OFAC) when they guide financial institutions in their dealings with related parties, especially designated nationals such as those identified as part of the Alissa Group sanctions package.    OFAC has stated that banks need only block transactions related to parties on 50 percent or more by an SDN, but only ``urges caution when dealing with parties where an SDN has a significant minority interest or may exercise control by means other than majority ownership.''    Never mind the lack of clarity on what regulators mean in practical terms when they urge caution. But what about an entity in a terror financing network that is 49 percent owned by a narco-trafficker working with Hezbollah? What about entities that share key personnel, identifiers, and selectors with a group of SDNs and operate in the same industry segment, in the same place as those SDNs?    Do we really want to allow financial institutions, transportation companies, insurance brokers--whomever it is, to service these clients? It strikes me that especially in the terror financing context, and doubly true in the case of the complex webs of relationships that characterize TBML, clarifying and expanding the scope of what the private sector needs to be concerned about is long overdue.    I thank you for the opportunity to be here today, and I look forward to your questions.    [The prepared statement of Mr. Mesko can be found on page 78 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Fitzpatrick. Thank you, Mr. Mesko.    And Dr. Passas, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Passas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Passas. Good morning, Chairman Fitzpatrick, and Ranking Member Lynch. Thank you for the kind introduction. Vice Chairman Pittenger, distinguished members of the task force, it is an honor to testify before you.    The threat of trade-based money laundering is serious, but effective responses are feasible and within reach. The switch to turn the lights on to what is now shadowy economic activities is in your hands. I will list the challenges and outline some solutions.    Despite substantial efforts against money laundering, too little attention is paid to trade, which constitutes the biggest security and crime liability, a black hole undermining the entire control framework. Even if all current rules were to be perfectly enforced throughout the world, billions of dirty funds could still be moved undetected.    Trade can hide both illegal shipments and illicit finance. Countering the finance of terrorism is about financial vigilance: to understand the operations of terror groups, respond effectively and strategically. For this, financial information and commercial flows must be monitored. Most of our attention focuses on the first two, while trade is neglected and is wide open to abuse.    Many terror groups have used commodities for finance, including ISIS. Some work was done in 2003 at FinCEN on trade-connected hawala and other informal value transfer systems, a term I coined back in the 1990s, but no proper assessment of trade vulnerabilities or updated hawala review has taken place.    When it comes to trillions of dollars in annual trade, our vision is blurred. Relevant information is scattered. Some of it is collected by Customs, FinCEN, the Department of Commerce, and port authorities and counterparts overseas.    Other data are in the hands of banks, insurance companies, logistics companies, importers, and exporters. No one has the full picture because no one aggregates the data in one place. Banks are expected to focus on transactions and check-the-box monitoring that yields massive false positives, rather than centering on the highest risks, identifying offenders and working more closely with controllers.    Finally, the value of open source information helpful for investigations and due diligence relative to criminal networks, beneficial ownership, adverse news, and corruption is underestimated. Yet, it can point to knowledge gaps, misunderstandings, and new insights. The answer is to stop missing opportunities.    The necessary data are not in one place but do exist, hawala is a challenge but also an intelligence resource because intermediaries can help. Agencies should share information. Businesses and academia can assist with new data collection and policy useful analysis.    Our view is blurred unnecessarily. It is like having a 4K TV that we use for analog programs. The means are there to create a feed for a high-definition picture of illicit trade and finance. Several data types can be assembled. Inbound and outbound manifests on what goods are received, where, when and who is involved. Import and export declarations when goods enter or leave the economy.    Some of it is published online, and some is provided by companies for a fee. Business documents, BSA, trade finance, insurance, storage, crime, medical, satellite imaging, and cash movement data can be added too.    Concrete steps the U.S. Government should consider include the following: ensure that government data are gathered and analyzed in one place--FinCEN would be ideal. Assemble private and open source data through a trusted third party such as a university that securely stores and analyzes them in a consolidated way, collaborates with FinCEN to identify irregularities, generate typologies and red flags, map criminal networks, issue guidance, and produce evidence-based investigative clues. Update information on hawala in the United States and regions of concern. Methods keep changing and adapting, and we need to know what changed    None of this is new. At Northeastern, we collaborated with FinCEN, DHS, and NIJ to do exactly this kind of work on hawala, gold, diamonds, and tobacco trade. Working with the Arizona attorney general, we combined MSB and trade data to analyze a TBML case involving textiles in the United States, Mexico, and China.    Partners in Europe and the Middle East stand ready to be enlisted in a collective action targeting, for example, ISIS, a group with enemies in and around the territory controls. Instead of shooting in the dark, we can shed light on black markets and go after well-defined targets.    Official networks and records, networks to produce new data, technology, analytical capacity, experience, and willingness to collaborate are all there. I urge you to turn the switch. Thank you.    [The prepared statement of Dr. Passas can be found on page 81 of the appendix.]</t>
   </si>
   <si>
@@ -289,9 +262,6 @@
     <t>412411</t>
   </si>
   <si>
-    <t>Dennis A. Ross</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ross. I thank the chairman.    And I thank the panelists for being here.    Over the several months that we have had this task force and we have had our hearings, we have learned of various sources of funding for terrorism financing. There have been the black markets, prostitution, human trafficking, and just theft. And now we are looking at trade-based money laundering.    This is a general question to the panel. What is the most common form of trade-based money laundering that is out there today that is benefiting the terrorist organizations? Whomever?</t>
   </si>
   <si>
@@ -367,9 +337,6 @@
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you, Mr. Chairman.    There was some mention of stovepiping, and I want to say a few words in defense of stovepiping, because back in the old days it used to be called a ``need-to-know basis.'' After 9/11, we decided we needed to connect the dots and so everybody in the intel community got to see all the dots. Bradley Manning got to see all the dots and he told the world about all the dots. So we need a balance of letting people in the intel committees see the dots and protecting our dots of information.    I think that there are people at Treasury who have done an outstanding job on terrorist financing, but there are aspects where we are just not serious. The witnesses have brought some of that to our attention. Outside the realm of this task force, I would point out that--and perhaps this has changed recently--our policy used to be that we didn't bomb oil tankers hauling ISIS oil because the drivers might be civilian.    Had we refused to bomb Nazi trains during World War II because the conductor was a civilian, we might live in a very different world today. And also, I don't see why they are using trade when our IRS allows you to get a tax deduction for giving money to terrorist organizations.    I brought to the IRS's attention 5 years ago a group that was funding ViVa Palestina and Hamas, gave them the videotape, and as of now, the only indication that anything has happened is that the organization itself puts on its website, ``The IRS may eventually take away our tax-exempt status,'' and implies you ought to give money to them now so that you can get your money to Hamas and get your tax deduction. So there is a certain lack of seriousness in some parts of Treasury, the IRS.    Mr. Cassara, you talked about not showing beneficial ownership, that Wyoming and Delaware--how big a problem is this and should we simply have a Federal statute that says, ``If you form an entity anywhere in America that makes use of interstate commerce, that is engaged with our interstate banking system, you have to disclose beneficial ownership in publicly available State or Federal records.'' How are we going to criticize the Cayman Islands if we have Delaware? Mr. Cassara?    And how helpful would it be to know the beneficial ownership of the entities involved in business and trade?</t>
   </si>
   <si>
@@ -463,9 +430,6 @@
     <t>400653</t>
   </si>
   <si>
-    <t>Al Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman. Let me thank you and the ranking member for the service that you are rendering in hosting these hearings. I would also like to thank the witnesses for appearing today, and make one observation. Looking at and judging your body language, you are all very resolute. You really have come to conclusions that you absolutely believe in. So I want to just compliment you on being so strong-willed, if you will, with reference to what you said.    Now, I will tell you, when I heard $972 for a plastic bucket, that got my attention. My question to you, sir, is, is this commonplace or a rarity? Because I understand what you mean about the value of transfer. How frequent do we have these occurrences of buckets, or a cattle for $20. You did say cattle for $20.    I am from Texas. From time to time, I wear a big hat. But I have no cattle. In Texas, that means you are really not very much of a cowboy or rancher. But when you tell me that you are selling cattle for $20, even I understand that there is a problem.    How is it that you are able to acquire this intelligence? And I am not sure whether you are implying in some way that others know about it, but they are not acting on it.</t>
   </si>
   <si>
@@ -508,9 +472,6 @@
     <t>412541</t>
   </si>
   <si>
-    <t>Andy Barr</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Barr. Thank you, Mr. Chairman. And thanks to our witnesses.    To Mr. Cassara, thank you for your career in addressing trade-based money laundering. I know you have--in your testimony, you stated that trade-based money laundering and value transfer, including all its varied forms, is perhaps the largest and most pervasive money laundering methodology in the world.    My question to you is a pretty simple one. Compared to other forms of terror finance, how problematic is trade-based money laundering as a method for terrorists?</t>
   </si>
   <si>
@@ -550,9 +511,6 @@
     <t>412633</t>
   </si>
   <si>
-    <t>Bruce Poliquin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Poliquin. Thank you very much, Mr. Chairman.    And I thank everyone for being here.    I think we can all agree that one of the primary or the primary responsibility of government is to keep American families safe. And I think we can also probably agree that for all kinds of reasons, we are losing the war on terror. Now, we can turn this around. We all know we can do that and one of the key things to do that is in fact make sure we choke off the funding that goes to terrorist organizations, which is in part what this is all about.    Now, we also all know that a stable government--whatever type of system it is--promotes a stable economy and when you have both that are stable you have more opportunity, better lives, better jobs, better futures. And that in itself promotes more stability and less likelihood to embrace terrorist organizations.    Now, Mr. Cassala, I would like you to talk a little bit if you can, please, about what spots around the world you have seen where in particular the activity of stealing goods, selling them cheaply in order to provide funding for terrorist organizations, is starting to or has destabilized local economies and therefore local governments, and therefore breeding grounds for terrorist activities that can keep our families in jeopardy?</t>
   </si>
   <si>
@@ -592,9 +550,6 @@
     <t>412609</t>
   </si>
   <si>
-    <t>J. French Hill</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hill. Thank you, Mr. Chairman.    I thank this distinguished panel for being with us. And I appreciate your leadership. Clearly, in this war on terrorism, diplomatic, military, and financial means are all equally important to winning this global war. And so I commend the chairman and the ranking member for renewing our task force.    On standing up TTUs in select regions so setting a priority to do that, what is the enabling organization to do that? How do we diplomatically through the Treasury, on a multi-lateral basis, carry out that mission and then aid that being accomplished in a region, Mr. Cassara?</t>
   </si>
   <si>
@@ -634,9 +589,6 @@
     <t>412399</t>
   </si>
   <si>
-    <t>David Schweikert</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Schweikert. Thank you, Mr. Chairman.    In many ways, Mr. Hill was actually sort of grabbing some of the direction I wanted to go.    My understanding is, as of yesterday, we now have nine running banks that have access to the SWIFT system. How does that work in a world where an institution anywhere in the world now has the traditional backbone moving money through? SWIFT and its charter is supposed to eliminate dodgy actors. But in this case, we know a couple of those nine actually have some really interesting things in their history.    So if you are collecting data, but it is coming through the legitimate backbone--and this may be more for Mr. Mesko with your data analytics background--comes in in a very legitimate platform, but parts of that transaction may be also moving bad actors' money. How do you segment it?</t>
   </si>
   <si>
@@ -670,9 +622,6 @@
     <t>412570</t>
   </si>
   <si>
-    <t>Keith J. Rothfus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rothfus. Thank you, Mr. Chairman.    Mr. Cassara, I just want to follow up a little bit--Congressman Williams had brought in the subject of TPP, which you mentioned in your testimony.    You suggest that every TPP signatory country should establish a trade transparency unit, and share appropriate targeted trade data to spot anomalies that could be indicative of trade fraud and money laundering. Do you know whether this was ever proposed by the Administration during the TPP negotiations?</t>
   </si>
   <si>
@@ -736,9 +685,6 @@
     <t>400348</t>
   </si>
   <si>
-    <t>Edward R. Royce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Royce. Thank you, Mr. Chairman. I appreciate that.    I guess the real surprise here is just how much money we are talking about in terms of revenues to these governments in the Western hemisphere, and across the developing world. You are talking about hundreds and hundreds of billions of dollars in terms of helping us balance our books and helping those governments as well.    So I think civil society, if it was really focused on just how much money you are talking about here, would bolt upright in terms of trying to figure out a structure in which to capture this information in order to try to capture the revenue flows back to the governments related to this.    The World Customs Organization, is that the entity that we should consider may be the platform for enforcement if we were to work internationally or is it the OECD? Is it their financial action task force that has that 40 plus 9 recommendations?    Is there a way to maybe incorporate this into that entity with the understanding there of how much we are talking about in terms of potential revenue? And therefore, that certainly could compensate for taking on that added burden on the part of that institution.    Where would you begin, and first, what would be the practical problems with establishing such a platform? And second, what would be the political problems maybe in doing it?</t>
   </si>
   <si>
@@ -761,9 +707,6 @@
   </si>
   <si>
     <t>400271</t>
-  </si>
-  <si>
-    <t>Gregory W. Meeks</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Meeks. Thank you, Mr. Chairman. And thank you to the panelists. I have been listening to some of the questions and some of your testimony. And this is complicated.    I guess I will direct my first question to Mr. Bock because--and just thinking about it, what makes this hard, I think, to fight against TBML, among other things, and I--another reason why I wanted to make sure I come down, I am a big guy who believes in trade.    And the world is much smaller and interconnected when we are trading back and forth. We enter into trade agreements and you look at the enormous volume of trade flows which obscures individual transactions and provides abundant opportunity for criminal organizations to transfer value across borders.    The complexity of it, as I think that you were just talking about, associated with foreign exchange transactions and then the additional complexity that can arise from the practice of co-mingling illicit funds with the cash flows of legitimate businesses and then the limited recourse to verification procedures or exchange customs data between countries.    So, when I look at how complicated all these challenges are, it becomes clear. And then, what you were just talking about on our side, looking on our side of what we can do in our government, but wouldn't it seem that there should be--we are doing some kind of international harmonization with cross-border systems of verification and data exchange?    Do you see any harmonization of international cooperation to combat TBML?</t>
@@ -1261,11 +1204,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1285,13 +1226,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1311,13 +1250,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1337,13 +1274,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1365,11 +1300,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1389,13 +1322,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1417,11 +1348,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1441,13 +1370,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1469,11 +1396,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1493,13 +1418,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1521,11 +1444,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1545,13 +1466,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1573,11 +1492,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1597,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1625,11 +1540,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1649,13 +1562,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
         <v>32</v>
-      </c>
-      <c r="G17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1677,11 +1588,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1701,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1729,11 +1636,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1753,13 +1658,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
         <v>36</v>
-      </c>
-      <c r="H21" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1781,11 +1684,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1805,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1833,11 +1732,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1857,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1885,11 +1780,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1909,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1935,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1961,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1987,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2013,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2039,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2065,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2091,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" t="s">
-        <v>39</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2117,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2143,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2169,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2195,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2221,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2247,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2273,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2299,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2325,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2351,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2377,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2405,11 +2260,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2429,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2455,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2481,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2507,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2533,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2559,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2585,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2611,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
-      </c>
-      <c r="G54" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2637,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2663,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
-      </c>
-      <c r="G56" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2689,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2715,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2741,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2769,11 +2596,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2793,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2819,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
-      </c>
-      <c r="G62" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2845,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
-      </c>
-      <c r="G63" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2871,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
-      </c>
-      <c r="G64" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2899,11 +2716,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2923,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>90</v>
-      </c>
-      <c r="G66" t="s">
-        <v>91</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2949,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G67" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2975,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>90</v>
-      </c>
-      <c r="G68" t="s">
-        <v>91</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3001,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
-      </c>
-      <c r="G69" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3027,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>90</v>
-      </c>
-      <c r="G70" t="s">
-        <v>91</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3053,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
-      </c>
-      <c r="G71" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3079,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>90</v>
-      </c>
-      <c r="G72" t="s">
-        <v>91</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3105,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
-      </c>
-      <c r="G73" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3131,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
+        <v>81</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
         <v>90</v>
-      </c>
-      <c r="G74" t="s">
-        <v>91</v>
-      </c>
-      <c r="H74" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3157,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
-      </c>
-      <c r="G75" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3183,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>90</v>
-      </c>
-      <c r="G76" t="s">
-        <v>91</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3209,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
-      </c>
-      <c r="G77" t="s">
-        <v>39</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3235,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>90</v>
-      </c>
-      <c r="G78" t="s">
-        <v>91</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3261,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
-      </c>
-      <c r="G79" t="s">
-        <v>39</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3287,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>90</v>
-      </c>
-      <c r="G80" t="s">
-        <v>91</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3313,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
-      </c>
-      <c r="G81" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3339,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>90</v>
-      </c>
-      <c r="G82" t="s">
-        <v>91</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3365,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
-      </c>
-      <c r="G83" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3391,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>90</v>
-      </c>
-      <c r="G84" t="s">
-        <v>91</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3417,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G85" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3443,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>90</v>
-      </c>
-      <c r="G86" t="s">
-        <v>91</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3469,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
-      </c>
-      <c r="G87" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3495,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>90</v>
-      </c>
-      <c r="G88" t="s">
-        <v>91</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3523,11 +3292,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3547,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>116</v>
-      </c>
-      <c r="G90" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3573,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
-      </c>
-      <c r="G91" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3599,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>116</v>
-      </c>
-      <c r="G92" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3625,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
-      </c>
-      <c r="G93" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3651,13 +3410,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>116</v>
-      </c>
-      <c r="G94" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3677,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
-      </c>
-      <c r="G95" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3703,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>116</v>
-      </c>
-      <c r="G96" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3729,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
-      </c>
-      <c r="G97" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3755,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>116</v>
-      </c>
-      <c r="G98" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3781,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
-      </c>
-      <c r="G99" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3807,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>116</v>
-      </c>
-      <c r="G100" t="s">
+        <v>106</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
         <v>117</v>
-      </c>
-      <c r="H100" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3833,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
-      </c>
-      <c r="G101" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3859,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>116</v>
-      </c>
-      <c r="G102" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3885,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
-      </c>
-      <c r="G103" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3913,11 +3652,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3937,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>26</v>
-      </c>
-      <c r="G105" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3963,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
-      </c>
-      <c r="G106" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3989,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>26</v>
-      </c>
-      <c r="G107" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4015,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
-      </c>
-      <c r="G108" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4041,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>26</v>
-      </c>
-      <c r="G109" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4067,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
-      </c>
-      <c r="G110" t="s">
-        <v>39</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4093,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>26</v>
-      </c>
-      <c r="G111" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4119,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G112" t="s">
-        <v>39</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4145,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>26</v>
-      </c>
-      <c r="G113" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4171,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
-      </c>
-      <c r="G114" t="s">
-        <v>39</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4197,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
-      </c>
-      <c r="G115" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4223,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>26</v>
-      </c>
-      <c r="G116" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4249,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
-      </c>
-      <c r="G117" t="s">
-        <v>39</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4275,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>26</v>
-      </c>
-      <c r="G118" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4303,11 +4012,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4327,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>148</v>
-      </c>
-      <c r="G120" t="s">
-        <v>149</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4353,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
-      </c>
-      <c r="G121" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4379,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>148</v>
-      </c>
-      <c r="G122" t="s">
-        <v>149</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4405,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
-      </c>
-      <c r="G123" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4431,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
-      </c>
-      <c r="G124" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4457,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>148</v>
-      </c>
-      <c r="G125" t="s">
-        <v>149</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4483,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
-      </c>
-      <c r="G126" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4509,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>148</v>
-      </c>
-      <c r="G127" t="s">
-        <v>149</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4535,13 +4226,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
-      </c>
-      <c r="G128" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4561,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>148</v>
-      </c>
-      <c r="G129" t="s">
-        <v>149</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4589,11 +4276,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4613,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
-      </c>
-      <c r="G131" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4641,11 +4324,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4665,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>163</v>
-      </c>
-      <c r="G133" t="s">
-        <v>164</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4691,13 +4370,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
-      </c>
-      <c r="G134" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4717,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>163</v>
-      </c>
-      <c r="G135" t="s">
-        <v>164</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4743,13 +4418,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
-      </c>
-      <c r="G136" t="s">
-        <v>39</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4769,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>163</v>
-      </c>
-      <c r="G137" t="s">
-        <v>164</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4795,13 +4466,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
-      </c>
-      <c r="G138" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4821,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>163</v>
-      </c>
-      <c r="G139" t="s">
-        <v>164</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4847,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
-      </c>
-      <c r="G140" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4873,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>163</v>
-      </c>
-      <c r="G141" t="s">
-        <v>164</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4899,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
-      </c>
-      <c r="G142" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4925,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>163</v>
-      </c>
-      <c r="G143" t="s">
-        <v>164</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4953,11 +4612,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4977,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>177</v>
-      </c>
-      <c r="G145" t="s">
-        <v>178</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5003,13 +4658,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
-      </c>
-      <c r="G146" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5029,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>177</v>
-      </c>
-      <c r="G147" t="s">
-        <v>178</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5055,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
-      </c>
-      <c r="G148" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5081,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>177</v>
-      </c>
-      <c r="G149" t="s">
-        <v>178</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5107,13 +4754,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
-      </c>
-      <c r="G150" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5133,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>177</v>
-      </c>
-      <c r="G151" t="s">
-        <v>178</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5159,13 +4802,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
-      </c>
-      <c r="G152" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5185,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>177</v>
-      </c>
-      <c r="G153" t="s">
-        <v>178</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5211,13 +4850,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
-      </c>
-      <c r="G154" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5237,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>177</v>
-      </c>
-      <c r="G155" t="s">
-        <v>178</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5265,11 +4900,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5289,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>191</v>
-      </c>
-      <c r="G157" t="s">
-        <v>192</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5315,13 +4946,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
-      </c>
-      <c r="G158" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5341,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>191</v>
-      </c>
-      <c r="G159" t="s">
-        <v>192</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5367,13 +4994,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
-      </c>
-      <c r="G160" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5393,13 +5018,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>191</v>
-      </c>
-      <c r="G161" t="s">
-        <v>192</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5419,13 +5042,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
-      </c>
-      <c r="G162" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5445,13 +5066,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>191</v>
-      </c>
-      <c r="G163" t="s">
-        <v>192</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5471,13 +5090,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
-      </c>
-      <c r="G164" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5497,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>191</v>
-      </c>
-      <c r="G165" t="s">
-        <v>192</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5523,13 +5138,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
-      </c>
-      <c r="G166" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5549,13 +5162,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>191</v>
-      </c>
-      <c r="G167" t="s">
-        <v>192</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5577,11 +5188,9 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5601,13 +5210,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>205</v>
-      </c>
-      <c r="G169" t="s">
-        <v>206</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5627,13 +5234,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
-      </c>
-      <c r="G170" t="s">
-        <v>39</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5653,13 +5258,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>205</v>
-      </c>
-      <c r="G171" t="s">
-        <v>206</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5679,13 +5282,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>32</v>
-      </c>
-      <c r="G172" t="s">
-        <v>39</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5705,13 +5306,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>205</v>
-      </c>
-      <c r="G173" t="s">
-        <v>206</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5731,13 +5330,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>32</v>
-      </c>
-      <c r="G174" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5757,13 +5354,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>205</v>
-      </c>
-      <c r="G175" t="s">
-        <v>206</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5783,13 +5378,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
-      </c>
-      <c r="G176" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5809,13 +5402,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>205</v>
-      </c>
-      <c r="G177" t="s">
-        <v>206</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5837,11 +5428,9 @@
       <c r="F178" t="s">
         <v>11</v>
       </c>
-      <c r="G178" t="s">
-        <v>12</v>
-      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5861,13 +5450,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>217</v>
-      </c>
-      <c r="G179" t="s">
-        <v>218</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5887,13 +5474,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
-      </c>
-      <c r="G180" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5913,13 +5498,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>217</v>
-      </c>
-      <c r="G181" t="s">
-        <v>218</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5939,13 +5522,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
-      </c>
-      <c r="G182" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5965,13 +5546,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>217</v>
-      </c>
-      <c r="G183" t="s">
-        <v>218</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5991,13 +5570,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>32</v>
-      </c>
-      <c r="G184" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6017,13 +5594,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>217</v>
-      </c>
-      <c r="G185" t="s">
-        <v>218</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6043,13 +5618,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
-      </c>
-      <c r="G186" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6069,13 +5642,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>217</v>
-      </c>
-      <c r="G187" t="s">
-        <v>218</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6095,13 +5666,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
-      </c>
-      <c r="G188" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6121,13 +5690,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>217</v>
-      </c>
-      <c r="G189" t="s">
-        <v>218</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6147,13 +5714,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>32</v>
-      </c>
-      <c r="G190" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6173,13 +5738,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>217</v>
-      </c>
-      <c r="G191" t="s">
-        <v>218</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6199,13 +5762,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>32</v>
-      </c>
-      <c r="G192" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6225,13 +5786,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>217</v>
-      </c>
-      <c r="G193" t="s">
-        <v>218</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6251,13 +5810,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
-      </c>
-      <c r="G194" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6277,13 +5834,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>217</v>
-      </c>
-      <c r="G195" t="s">
+        <v>201</v>
+      </c>
+      <c r="G195" t="s"/>
+      <c r="H195" t="s">
         <v>218</v>
-      </c>
-      <c r="H195" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6303,13 +5858,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>32</v>
-      </c>
-      <c r="G196" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6329,13 +5882,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>217</v>
-      </c>
-      <c r="G197" t="s">
-        <v>218</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6357,11 +5908,9 @@
       <c r="F198" t="s">
         <v>11</v>
       </c>
-      <c r="G198" t="s">
-        <v>12</v>
-      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6381,13 +5930,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>239</v>
-      </c>
-      <c r="G199" t="s">
-        <v>240</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6407,13 +5954,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>32</v>
-      </c>
-      <c r="G200" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6433,13 +5978,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>239</v>
-      </c>
-      <c r="G201" t="s">
-        <v>240</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6459,13 +6002,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>32</v>
-      </c>
-      <c r="G202" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6485,13 +6026,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>32</v>
-      </c>
-      <c r="G203" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6511,13 +6050,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>239</v>
-      </c>
-      <c r="G204" t="s">
-        <v>240</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6539,11 +6076,9 @@
       <c r="F205" t="s">
         <v>11</v>
       </c>
-      <c r="G205" t="s">
-        <v>12</v>
-      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6563,13 +6098,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>248</v>
-      </c>
-      <c r="G206" t="s">
-        <v>249</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6589,13 +6122,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>32</v>
-      </c>
-      <c r="G207" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6615,13 +6146,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>248</v>
-      </c>
-      <c r="G208" t="s">
-        <v>249</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6641,13 +6170,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>32</v>
-      </c>
-      <c r="G209" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6667,13 +6194,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>248</v>
-      </c>
-      <c r="G210" t="s">
-        <v>249</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6693,13 +6218,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>32</v>
-      </c>
-      <c r="G211" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6719,13 +6242,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>248</v>
-      </c>
-      <c r="G212" t="s">
-        <v>249</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6745,13 +6266,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
-      </c>
-      <c r="G213" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6771,13 +6290,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>32</v>
-      </c>
-      <c r="G214" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6797,13 +6314,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>248</v>
-      </c>
-      <c r="G215" t="s">
-        <v>249</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6823,13 +6338,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>32</v>
-      </c>
-      <c r="G216" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6851,11 +6364,9 @@
       <c r="F217" t="s">
         <v>11</v>
       </c>
-      <c r="G217" t="s">
-        <v>12</v>
-      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6875,13 +6386,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>14</v>
-      </c>
-      <c r="G218" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6901,13 +6410,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>32</v>
-      </c>
-      <c r="G219" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6927,13 +6434,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>14</v>
-      </c>
-      <c r="G220" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6953,13 +6458,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>32</v>
-      </c>
-      <c r="G221" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6979,13 +6482,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>14</v>
-      </c>
-      <c r="G222" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7005,13 +6506,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>32</v>
-      </c>
-      <c r="G223" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7031,13 +6530,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>14</v>
-      </c>
-      <c r="G224" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7057,13 +6554,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>32</v>
-      </c>
-      <c r="G225" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7083,13 +6578,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>14</v>
-      </c>
-      <c r="G226" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7109,13 +6602,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>32</v>
-      </c>
-      <c r="G227" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7135,13 +6626,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>14</v>
-      </c>
-      <c r="G228" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7163,11 +6652,9 @@
       <c r="F229" t="s">
         <v>11</v>
       </c>
-      <c r="G229" t="s">
-        <v>12</v>
-      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7187,13 +6674,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>22</v>
-      </c>
-      <c r="G230" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7213,13 +6698,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>32</v>
-      </c>
-      <c r="G231" t="s">
-        <v>39</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7239,13 +6722,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>22</v>
-      </c>
-      <c r="G232" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7265,13 +6746,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>32</v>
-      </c>
-      <c r="G233" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7291,13 +6770,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>22</v>
-      </c>
-      <c r="G234" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7317,13 +6794,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>32</v>
-      </c>
-      <c r="G235" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7343,13 +6818,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>22</v>
-      </c>
-      <c r="G236" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7369,13 +6842,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>32</v>
-      </c>
-      <c r="G237" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7395,13 +6866,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>22</v>
-      </c>
-      <c r="G238" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7423,11 +6892,9 @@
       <c r="F239" t="s">
         <v>11</v>
       </c>
-      <c r="G239" t="s">
-        <v>12</v>
-      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg23565.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg23565.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="299">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400646</t>
   </si>
   <si>
+    <t>Fitzpatrick</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Fitzpatrick. The Task Force to Investigate Terrorism Financing will come to order. The title of today's hearing is, ``Trading with the Enemy: Trade-Based Money Laundering is the Growth Industry in Terror Finance.''    Without objection, the Chair is authorized to declare a recess of the task force at any time.    The Chair now recognizes himself for 3 minutes for an opening statement.    On March 25, 2015, under the leadership of Chairman Jeb Hensarling, the House Committee on Financial Services adopted a resolution creating the Task Force to Investigate Terrorism Financing. The aim of this task force has been to assess the effectiveness of our current money-laundering and counter-terror finance efforts and tools when faced with a world containing new and evolving threats.    With Ranking Member Stephen Lynch, Vice Chair Robert Pittenger, and a bipartisan group of 21 Members, the Task Force has been able to conduct five hearings, and several briefings and information sessions, as well as a CODEL to meet with regional partners and discuss their efforts to counter terrorism financing.    The initial 6 months of operation shed significant light on multiple issues with regards to counter-threats finance and anti-money laundering initiatives. First was the discovery of the various revenue streams ISIS utilizes to fund its terror operation, and the ways in which the United States may effectively counter them, such as continuing to target ISIS oil infrastructure, working with regional allies to close porous borders, and a better police to travel with foreign fighters.    Second, the task force brought about a consensus that there is a need for greater information-sharing throughout the financial system and between government agencies, as well as an increased integration of government databases. Finally, it became evident through witness testimony and numerous briefings, that Congress needs to act on beneficial ownership and to provide the appropriate agencies sufficient resources to address current challenges.    Building on what we know and have learned, this session will take a much closer look at several lesser-known methodologies that have been mentioned in previous briefings and hearings, including trade-based money laundering, terror-funding streams from Latin America, developing our regional partners' capabilities to combat terror financing, and the funding of foreign-based terrorists.    Today, we aim to take a closer look at trade-based money laundering, the process of disguising the proceeds of crime and moving value through the use of trade transactions in an attempt to legitimize their illicit origins. This practice allows hundreds of billions of dollars to be laundered annually and cannot be allowed to continue.    It is our hope that with the help of our expert witnesses, this body will walk away with a better understanding of the problem as well as an effective measure to curb and combat this practice. On Monday, DEA and European authorities were able to uncover a massive Hezbollah drug and money-laundering scheme that was intent on providing financial assets to militants in Syria. This development depicts the scale of this problem and the urgent need to devote more focus towards it.    Unless there is any objection, I will ask for unanimous consent to put this DEA release into the record.    Without objection, it is so ordered. This hearing marks the beginning of another 6 months of investigation, and an additional step towards snuffing out the resources necessary for these nefarious groups to grow and to thrive.    I now recognize for an opening statement the ranking member of the task force, the gentleman from Massachusetts, Mr. Lynch.</t>
   </si>
   <si>
     <t>400249</t>
   </si>
   <si>
+    <t>Lynch</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman, and I thank Chairman Hensarling, Ranking Members Water, and Vice Chair Pittenger for holding today's hearing. I also want to thank our witnesses for helping this task force with its important work. This hearing will give us a much-needed opportunity to examine the trade-based money laundering nexus to terrorism financing.    Trade-based money laundering involves using trade and products or commodities for value in order to divert and obscure the true nature of illicit wealth. Currently, there is ample opportunity for terrorist groups to exploit the international trade system, with low risk of being caught. According to the Financial Action Task Force (FATF), key characteristics of the international trade system, including the enormous volume of trade flows and the complexity therein, can arise from the practice of co-mingling illicit funds with the cash flows of legitimate businesses, and the limited recourse to verification procedures or programs to exchange customs data between countries, have made it both attractive and vulnerable to illicit exploitation.    A few years ago my colleagues at FinCEN briefed me on an elaborate trade-based money laundering scheme that was linked to the terrorist organization Hezbollah. Under the scheme, the Lebanese-Canadian Bank and multiple foreign-exchange houses facilitated the laundering of South American drug proceeds through the Lebanese financial system and through trade-based money laundering schemes involving cars and consumer goods. Cars would be purchased in the United States and shipped to Senegal and other areas of West Africa. The proceeds from the car sales would be funneled back to Lebanon through bulk cash deposits among conspiring exchange houses.    Now as the Chair has noted, we are back at it again with the Lebanese-Canadian bank, and the same stream of illicit funding has been encountered again. I note that our witnesses, Lou Bock and John Cassara, suggested that a network of global trade transparency units (TTUs) would help us bring the opaque system used by Hezbollah and many others into the light of day, and I am inclined to agree.    The United States is already at the forefront of trade transparency. In 2004, the United States created the first transparency unit within the Department of Homeland Security to analyze data in order to identify global trade-based money laundering trends. A further expansion of TTUs would allow the United States to trade paperwork and set international standards for trade.    And as Lou Bock and John Cassara propose, we need a system of TTUs that is analogous to the Egmont Group's financial intelligence units. I am happy to see that Dr. Nikos Passas of Northeastern is with us today, and he recommends highly that we need to collect this data in one place so it can be easily analyzed.    So in closing, I just appreciate the work of the Chair and the Vice Chair, and the work of our witnesses as well. This is important work that needs to be addressed.    I would like to yield 1 minute to the ranking member of the full Financial Services Committee, Ms. Maxine Waters.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>412509</t>
   </si>
   <si>
+    <t>Sinema</t>
+  </si>
+  <si>
+    <t>Kyrsten</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Sinema. Thank you, Chairman Fitzpatrick, and Ranking Member Lynch. Arizona's top export market is Mexico, and cross-border trade is essential to our economy. Despite its importance to Arizona's economy, cross-border trade is often used to facilitate international money laundering. For the past 20 years, official figures put Mexican exports to America well above American imports from Mexico. According to Global Financial Integrity, the discrepancy can be attributed to Mexican groups using trade-based money laundering to bring dollars into Mexico.    We need to find ways to stop trade-based money laundering, while promoting the efficient and cost-effective movement of goods and services across borders. Given the volume and complexity of trade-based money laundering, how can we do more to counter the misuse of international commerce and the threat it poses to our national security? How can we address this national security threat without limiting access to banking services for legitimate enterprises in border States like mine? I look forward to hearing more from our witnesses today about how we can better combat international money laundering without creating costly red tape and inhibit commercial trade flows.    Thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
@@ -76,6 +97,12 @@
     <t>412551</t>
   </si>
   <si>
+    <t>Pittenger</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pittenger. Thank you, Chairman Fitzpatrick, and thank you to Chairman Hensarling and Ranking Member Waters, and I particularly want to thank Ranking Member Lynch of this task force for its continued dedication to these issues and all the Members who have committed their time and efforts in this important work. And thank you to the witnesses who have come and brought their experience to this task force.    Criminal enterprises have relied on this method of illicit financing for years. However, many believe that this is an emerging technique now being used by terrorist groups to finance their violent and oppressive operations.    With over $100 billion flowing in Iran, the world's largest state sponsor of terror, the risk of terror financing has never been greater. Similarly, the Administration has done nothing to diminish the number of ISIS soldiers on the battlefield in Iraq and Syria. ISIS members have remained consistently 20,000 to 30,000 soldiers for the past several years despite over 10,000 Saudi air strikes.    Since we have not removed ISIS from the battlefield, they will continue to require resources to fund their oppression. As we enter into the new year, Congress should prioritize efforts to stop the flow of money and resources to terrorist organizations. We must ensure that organizations like the Financial Crimes Enforcement Network (FinCEN) receive the resources and intelligence necessary to combat trade-based money laundering and other methods of illicit financing.    With that, I thank the Chair and the ranking member once again, and I yield back.</t>
   </si>
   <si>
@@ -85,6 +112,12 @@
     <t>412578</t>
   </si>
   <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Williams. Thank you, Chairman Fitzpatrick, and thanks to all of the witnesses today for being here. As previous task force hearings have explored, the use of trade to launder money is nothing new and is most definitely on the rise. Although trade-based money laundering is widely recognized as one of the most common ways terrorist organizations seek funding, it is my hope that this task force continues to explore solutions to an ever-growing problem that often hits too close to home.    When I talk about that, I am talking about my home. As a second generation auto dealer, my industry has not been immune to trade-based money laundering. Through the sale of used cars as well as other legitimate products, terrorist organization have funneled billions of dollars through U.S. markets.    While many high-profile cases have been discussed in prior hearings, criminal organizations will continue to exploit new methods when it comes to laundering money unless strict government oversight enforcement is improved.    It is my belief that this task force has an important role to play in the combating of terrorist financing, and I look forward to hearing from our witnesses on how best to do it, and especially on how my industry can do what they need to do to stop it. So thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
@@ -100,24 +133,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Cassara</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cassara. Good morning. Chairman Fitzpatrick, Ranking Member Lynch, and members of the task force, thank you for the opportunity to testify today. It is an honor for me to be here. Not long after the September 11th attacks, I had a conversation with a Pakistani entrepreneur. This businessman could charitably be described as being involved in international gray markets and illicit finance.    We discussed many of the subjects addressed in this hearing including trade-based money laundering, terror finance, value transfer, hawala, fictitious invoicing, counter-valuation, and others. At the end of the discussion he looked at me and he said, ``Mr. John, don't you know that your adversaries are transferring money and value right under your noses? But the West doesn't see it. Your enemies are laughing at you.''    That businessman knew that the United States and the international community had devoted attention, countermeasures, and resources to counter a variety of money laundering and terror finance methodologies. However, trade-based money laundering (TBML) for the most part has been ignored. TBML is defined as the process of disguising the proceeds of crime and moving value through the use of trade transactions in an attempt to legitimize their illicit origins.    The key word in that definition is ``value.'' The magnitude of TBML has never been systematically examined. Nevertheless, one academic study examining the 2013 U.S. trade data found that almost $220 billion of the illicit value was moved out of the United States in the form of value transfer. That figure represents almost 6 percent of U.S. trade.    Approximately $340 billion was moved into the country via suspect trade transactions representing about 9 percent of U.S. trade. TBML is also involved with tax evasion, export incentive fraud, VAT fraud, capital flight or the transfer of wealth offshore, evading capital controls, barter trade, underground financial systems such as fei-chien, the Chinese flying money system, the black market peso exchange and commercial trade-based money laundering such as trade diversion, transfer pricing, and abusive trade misincoming.    In discussing terror finance, TBML is also intertwined with hawala, the misuse of the Afghan transit trade, Iran and Dubai commercial connections, the tri-border region in South America, suspect international Lebanese-Hezbollah trading syndicates, non-bank lawless regimes such as those in Somalia and Libya, the ISIS regime in Syria and Iraq, and many more.    So considering all of its varied forms, I can make the argument that trade-based money laundering is perhaps the largest and most pervasive money laundering methodology in the world. Unfortunately, it is also the least understood, recognized, and enforced. In its primary form, TBML revolves around invoice fraud and the associated manipulation of supporting documents. The primary techniques are over- and under-invoicing of goods, multiple invoicing of goods, and falsely described goods.    For example, did you know that we are importing plastic buckets from the Czech Republic and each bucket costs $972? Do you know that we are importing toilet tissue from China at the price of over $4,000 a kilogram? And that we are exporting live cattle to Mexico at $20 a head? Because of the magnitude of U.S. and global merchandise trade, these transactions and millions of others like them are not recognized, and simply get comingled.    Successful enforcement efforts are practically nil. Nevertheless, I am hopeful. First of all, theoretically, international trade transparency can be achieved because of the exponential growth in data and the incredible advances in analytics. I am also optimistic because trade transparency is also a revenue enhancer. I have found that the carrot of empowering our partners to strive for trade transparency and increased revenue can be much more effective than the stick of heavy-handed measures that have proven to be unsuccessful.    I have a number of recommendations in my written statement, and in my new book, ``Trade-Based Money Laundering: The Next Frontier in International Money Laundering Enforcement.'' These include reaching a consensus on the magnitude of the problem, a Financial Action Task Force recommendation on TBML, and supporting the trade transparency unit initiative.    Thank you, and I would be very happy to answer any questions you may have.    [The prepared statement of Mr. Cassara can be found on page 67 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Fitzpatrick. Thank you, Mr. Cassara.    Mr. Bock, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Bock</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bock. Good morning. I would also like to thank the chairman and the members of the task force for this opportunity. I appreciate your interest in the program that I have helped to develop for the past 25 years.    My name is Lou Bock, and I am a retired Senior Special Agent who worked as an investigator with DEA and USDA, later at Customs, which later became ISDHA. I worked on and supervised financial fraud and intelligence programs. For much of my career, I generated and worked large, complicated criminal cases involving trade fraud and money laundering schemes totaling billions of dollars.    I did so with the help of a team of import and tax specialists, agents, and analysts. We identified patterns of criminal behavior that stretched across large volumes of trade and financial data. The software methodology that my team and I pioneered was successfully deployed in over two dozen countries.    This led, with the insight and vision of John Cassara, to the development of trade transparency units (TTUs). I believe that TTUs have veered from their initial financial and Customs focus in part because of the changing culture within the Department of Homeland Security. Cassara writes in his book, ``Trade Based Money Laundering,'' that the forced merger with the former INS, and expansion of Customs missions into immigration enforcement, has not been successful.    Its expertise, skill sets, budgets, and staffing were deluded. The resulting dysfunction within the DHS has been less well-documented. DHS has neither the Customs nor financial expertise to make the TTU a success. The loser here is our ability to tackle trade-based money laundering and trade and tax revenue loss on a grand scale.    It is a missed opportunity to target funds belonging to terrorist groups such as ISIS, which necessarily do participate in their local trade. What is needed in support of a TTU? Detailed transactional import and export data, as well as records of the movement of money for the United States and partner nations.    Movement of trade goods should include bills of lading and manifest records for both imports and exports of the United States. Intermediate container movements, which are readily available, are also useful. ESA data which includes suspicious activity reports will greatly enhance the targeting veracity of the items mentioned above.    At present, the existing DHS TTU's attention is focused 90 percent on South America. That perhaps makes some sense given that DHS' focus is on immigration and drugs. However, I believe this view does little to attack current evolving terrorist threats. The real money flowing to ISIS involves trade from the Middle East, Europe and including Turkey.    With the proper focus on terrorist financing and trade-based money laundering, housed in a financial organization such as FinCEN, which has existing agreements with revenue agencies, we can make a serious dent in the core funding sources of entities such as ISIS.    I recommend the creation of a reinvigorated TTU with an associated budget line from Customs. I also think that a TTU should be housed at FinCEN under Treasury. Treasury is an agency capable of addressing the nexus of trade-based money laundering and tax revenue loss within the existing international agreements.    I believe DHS ICE is not a revenue agency and the Treasury Department is. Giving FinCEN this focus immediately, and full access to the necessary trade data, is the obvious next step, whatever the eventual status of the TTU initiative is within     Let's return to our earlier vision: focus and effectiveness, built on a rapidly increasing number of TTUs analogous to the Egmont Group's financial intelligence units.    I would like to get back on track with this. Thank you for listening.    [The prepared statement of Mr. Bock can be found on page 42 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Fitzpatrick. Mr. Mesko, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Mesko</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Mesko. Chairman Fitzpatrick, Ranking Member Lynch, and members of the task force, I want to thank you for the opportunity to be here today. I want to dive deeper into the real-world example of Hezbollah terror financing through TBML. It was referenced in the opening statements by the Members.    I want to do so in order to illustrate some of the challenges and opportunities in targeting these schemes. 2011 is part of a larger sanctions package. U.S. regulators and law enforcement identified a Cotonou Benin-based group of import-export companies known as the Alissa Group that dealt primarily in used-car imports into West Africa from the United States, Canada, and Europe.    Treasury data from the original 2011 action indicates that at least 6 of the sanctioned companies shared an address in Cotonou. Several also shared the same phone number and key personnel.    We went to the public records in the Chamber of Commerce in Cotonou and Benin, and found that another company co-located with the Alissa Group at the time of the original 2011 designation was Ramadi SRL. And further, that a new company, Abou Merhi Lines began to use the same shared address and phone number shortly after the 2011 sanctions designation.    It took 2 more years to identify the Ramadi SRL as a participant in the original scheme. And 2013 FinCEN 311 designation. It took another 2 years on top of that to identify and sanction Abou Merhi Lines in 2015. These entities were operating for years out of the same location in Benin, with the same address, and the same phone number, by the same key people.    What I haven't mentioned so far is that in addition to the Ramadi SRL and Abou Merhi Lines, public data shows that at least five other companies and two individuals were and possibly continue to be active at the shared Alissa Group address in Benin, in some cases listed in care of Alissa Group on their public documents and operating in the used vehicle trade.    I share this example because it illustrates several key points about detecting and deterring trade-based money laundering.    First, that sanctions, 311 actions, and indictments are a starting point and not an endpoint in the government's efforts to target money launderers and terror financiers. Networks change over time but they rarely go away, and TBML networks in particular often leave a large footprint companies and individuals as a result of their efforts to seem legitimate.    Working in our favor, more often than not there is a trail leading back from these seemingly legitimate entities to already known and already identified illicit actors. The data to help us draw these connections is often publicly available. It may not be easy to find, but it is out there.    Working against us, however, is the fact that the types of relationships that we should be concerned about within a network don't always comport with the types of relationships that regulators have told banks, insurance companies, and the transportation sector that they need to be concerned about.    This is an area where I think the task force could have real impact, and the clearest example in my mind is that of the singular focus on majority ownership by Treasury's Office of Foreign Assets Control (OFAC) when they guide financial institutions in their dealings with related parties, especially designated nationals such as those identified as part of the Alissa Group sanctions package.    OFAC has stated that banks need only block transactions related to parties on 50 percent or more by an SDN, but only ``urges caution when dealing with parties where an SDN has a significant minority interest or may exercise control by means other than majority ownership.''    Never mind the lack of clarity on what regulators mean in practical terms when they urge caution. But what about an entity in a terror financing network that is 49 percent owned by a narco-trafficker working with Hezbollah? What about entities that share key personnel, identifiers, and selectors with a group of SDNs and operate in the same industry segment, in the same place as those SDNs?    Do we really want to allow financial institutions, transportation companies, insurance brokers--whomever it is, to service these clients? It strikes me that especially in the terror financing context, and doubly true in the case of the complex webs of relationships that characterize TBML, clarifying and expanding the scope of what the private sector needs to be concerned about is long overdue.    I thank you for the opportunity to be here today, and I look forward to your questions.    [The prepared statement of Mr. Mesko can be found on page 78 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Fitzpatrick. Thank you, Mr. Mesko.    And Dr. Passas, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Passas</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Passas. Good morning, Chairman Fitzpatrick, and Ranking Member Lynch. Thank you for the kind introduction. Vice Chairman Pittenger, distinguished members of the task force, it is an honor to testify before you.    The threat of trade-based money laundering is serious, but effective responses are feasible and within reach. The switch to turn the lights on to what is now shadowy economic activities is in your hands. I will list the challenges and outline some solutions.    Despite substantial efforts against money laundering, too little attention is paid to trade, which constitutes the biggest security and crime liability, a black hole undermining the entire control framework. Even if all current rules were to be perfectly enforced throughout the world, billions of dirty funds could still be moved undetected.    Trade can hide both illegal shipments and illicit finance. Countering the finance of terrorism is about financial vigilance: to understand the operations of terror groups, respond effectively and strategically. For this, financial information and commercial flows must be monitored. Most of our attention focuses on the first two, while trade is neglected and is wide open to abuse.    Many terror groups have used commodities for finance, including ISIS. Some work was done in 2003 at FinCEN on trade-connected hawala and other informal value transfer systems, a term I coined back in the 1990s, but no proper assessment of trade vulnerabilities or updated hawala review has taken place.    When it comes to trillions of dollars in annual trade, our vision is blurred. Relevant information is scattered. Some of it is collected by Customs, FinCEN, the Department of Commerce, and port authorities and counterparts overseas.    Other data are in the hands of banks, insurance companies, logistics companies, importers, and exporters. No one has the full picture because no one aggregates the data in one place. Banks are expected to focus on transactions and check-the-box monitoring that yields massive false positives, rather than centering on the highest risks, identifying offenders and working more closely with controllers.    Finally, the value of open source information helpful for investigations and due diligence relative to criminal networks, beneficial ownership, adverse news, and corruption is underestimated. Yet, it can point to knowledge gaps, misunderstandings, and new insights. The answer is to stop missing opportunities.    The necessary data are not in one place but do exist, hawala is a challenge but also an intelligence resource because intermediaries can help. Agencies should share information. Businesses and academia can assist with new data collection and policy useful analysis.    Our view is blurred unnecessarily. It is like having a 4K TV that we use for analog programs. The means are there to create a feed for a high-definition picture of illicit trade and finance. Several data types can be assembled. Inbound and outbound manifests on what goods are received, where, when and who is involved. Import and export declarations when goods enter or leave the economy.    Some of it is published online, and some is provided by companies for a fee. Business documents, BSA, trade finance, insurance, storage, crime, medical, satellite imaging, and cash movement data can be added too.    Concrete steps the U.S. Government should consider include the following: ensure that government data are gathered and analyzed in one place--FinCEN would be ideal. Assemble private and open source data through a trusted third party such as a university that securely stores and analyzes them in a consolidated way, collaborates with FinCEN to identify irregularities, generate typologies and red flags, map criminal networks, issue guidance, and produce evidence-based investigative clues. Update information on hawala in the United States and regions of concern. Methods keep changing and adapting, and we need to know what changed    None of this is new. At Northeastern, we collaborated with FinCEN, DHS, and NIJ to do exactly this kind of work on hawala, gold, diamonds, and tobacco trade. Working with the Arizona attorney general, we combined MSB and trade data to analyze a TBML case involving textiles in the United States, Mexico, and China.    Partners in Europe and the Middle East stand ready to be enlisted in a collective action targeting, for example, ISIS, a group with enemies in and around the territory controls. Instead of shooting in the dark, we can shed light on black markets and go after well-defined targets.    Official networks and records, networks to produce new data, technology, analytical capacity, experience, and willingness to collaborate are all there. I urge you to turn the switch. Thank you.    [The prepared statement of Dr. Passas can be found on page 81 of the appendix.]</t>
   </si>
   <si>
@@ -262,6 +307,12 @@
     <t>412411</t>
   </si>
   <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ross. I thank the chairman.    And I thank the panelists for being here.    Over the several months that we have had this task force and we have had our hearings, we have learned of various sources of funding for terrorism financing. There have been the black markets, prostitution, human trafficking, and just theft. And now we are looking at trade-based money laundering.    This is a general question to the panel. What is the most common form of trade-based money laundering that is out there today that is benefiting the terrorist organizations? Whomever?</t>
   </si>
   <si>
@@ -337,6 +388,12 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you, Mr. Chairman.    There was some mention of stovepiping, and I want to say a few words in defense of stovepiping, because back in the old days it used to be called a ``need-to-know basis.'' After 9/11, we decided we needed to connect the dots and so everybody in the intel community got to see all the dots. Bradley Manning got to see all the dots and he told the world about all the dots. So we need a balance of letting people in the intel committees see the dots and protecting our dots of information.    I think that there are people at Treasury who have done an outstanding job on terrorist financing, but there are aspects where we are just not serious. The witnesses have brought some of that to our attention. Outside the realm of this task force, I would point out that--and perhaps this has changed recently--our policy used to be that we didn't bomb oil tankers hauling ISIS oil because the drivers might be civilian.    Had we refused to bomb Nazi trains during World War II because the conductor was a civilian, we might live in a very different world today. And also, I don't see why they are using trade when our IRS allows you to get a tax deduction for giving money to terrorist organizations.    I brought to the IRS's attention 5 years ago a group that was funding ViVa Palestina and Hamas, gave them the videotape, and as of now, the only indication that anything has happened is that the organization itself puts on its website, ``The IRS may eventually take away our tax-exempt status,'' and implies you ought to give money to them now so that you can get your money to Hamas and get your tax deduction. So there is a certain lack of seriousness in some parts of Treasury, the IRS.    Mr. Cassara, you talked about not showing beneficial ownership, that Wyoming and Delaware--how big a problem is this and should we simply have a Federal statute that says, ``If you form an entity anywhere in America that makes use of interstate commerce, that is engaged with our interstate banking system, you have to disclose beneficial ownership in publicly available State or Federal records.'' How are we going to criticize the Cayman Islands if we have Delaware? Mr. Cassara?    And how helpful would it be to know the beneficial ownership of the entities involved in business and trade?</t>
   </si>
   <si>
@@ -430,6 +487,12 @@
     <t>400653</t>
   </si>
   <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman. Let me thank you and the ranking member for the service that you are rendering in hosting these hearings. I would also like to thank the witnesses for appearing today, and make one observation. Looking at and judging your body language, you are all very resolute. You really have come to conclusions that you absolutely believe in. So I want to just compliment you on being so strong-willed, if you will, with reference to what you said.    Now, I will tell you, when I heard $972 for a plastic bucket, that got my attention. My question to you, sir, is, is this commonplace or a rarity? Because I understand what you mean about the value of transfer. How frequent do we have these occurrences of buckets, or a cattle for $20. You did say cattle for $20.    I am from Texas. From time to time, I wear a big hat. But I have no cattle. In Texas, that means you are really not very much of a cowboy or rancher. But when you tell me that you are selling cattle for $20, even I understand that there is a problem.    How is it that you are able to acquire this intelligence? And I am not sure whether you are implying in some way that others know about it, but they are not acting on it.</t>
   </si>
   <si>
@@ -472,6 +535,12 @@
     <t>412541</t>
   </si>
   <si>
+    <t>Barr</t>
+  </si>
+  <si>
+    <t>Garland</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Barr. Thank you, Mr. Chairman. And thanks to our witnesses.    To Mr. Cassara, thank you for your career in addressing trade-based money laundering. I know you have--in your testimony, you stated that trade-based money laundering and value transfer, including all its varied forms, is perhaps the largest and most pervasive money laundering methodology in the world.    My question to you is a pretty simple one. Compared to other forms of terror finance, how problematic is trade-based money laundering as a method for terrorists?</t>
   </si>
   <si>
@@ -511,6 +580,12 @@
     <t>412633</t>
   </si>
   <si>
+    <t>Poliquin</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Poliquin. Thank you very much, Mr. Chairman.    And I thank everyone for being here.    I think we can all agree that one of the primary or the primary responsibility of government is to keep American families safe. And I think we can also probably agree that for all kinds of reasons, we are losing the war on terror. Now, we can turn this around. We all know we can do that and one of the key things to do that is in fact make sure we choke off the funding that goes to terrorist organizations, which is in part what this is all about.    Now, we also all know that a stable government--whatever type of system it is--promotes a stable economy and when you have both that are stable you have more opportunity, better lives, better jobs, better futures. And that in itself promotes more stability and less likelihood to embrace terrorist organizations.    Now, Mr. Cassala, I would like you to talk a little bit if you can, please, about what spots around the world you have seen where in particular the activity of stealing goods, selling them cheaply in order to provide funding for terrorist organizations, is starting to or has destabilized local economies and therefore local governments, and therefore breeding grounds for terrorist activities that can keep our families in jeopardy?</t>
   </si>
   <si>
@@ -550,6 +625,12 @@
     <t>412609</t>
   </si>
   <si>
+    <t>Hill</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hill. Thank you, Mr. Chairman.    I thank this distinguished panel for being with us. And I appreciate your leadership. Clearly, in this war on terrorism, diplomatic, military, and financial means are all equally important to winning this global war. And so I commend the chairman and the ranking member for renewing our task force.    On standing up TTUs in select regions so setting a priority to do that, what is the enabling organization to do that? How do we diplomatically through the Treasury, on a multi-lateral basis, carry out that mission and then aid that being accomplished in a region, Mr. Cassara?</t>
   </si>
   <si>
@@ -589,6 +670,12 @@
     <t>412399</t>
   </si>
   <si>
+    <t>Schweikert</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Schweikert. Thank you, Mr. Chairman.    In many ways, Mr. Hill was actually sort of grabbing some of the direction I wanted to go.    My understanding is, as of yesterday, we now have nine running banks that have access to the SWIFT system. How does that work in a world where an institution anywhere in the world now has the traditional backbone moving money through? SWIFT and its charter is supposed to eliminate dodgy actors. But in this case, we know a couple of those nine actually have some really interesting things in their history.    So if you are collecting data, but it is coming through the legitimate backbone--and this may be more for Mr. Mesko with your data analytics background--comes in in a very legitimate platform, but parts of that transaction may be also moving bad actors' money. How do you segment it?</t>
   </si>
   <si>
@@ -622,6 +709,12 @@
     <t>412570</t>
   </si>
   <si>
+    <t>Rothfus</t>
+  </si>
+  <si>
+    <t>Keith</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rothfus. Thank you, Mr. Chairman.    Mr. Cassara, I just want to follow up a little bit--Congressman Williams had brought in the subject of TPP, which you mentioned in your testimony.    You suggest that every TPP signatory country should establish a trade transparency unit, and share appropriate targeted trade data to spot anomalies that could be indicative of trade fraud and money laundering. Do you know whether this was ever proposed by the Administration during the TPP negotiations?</t>
   </si>
   <si>
@@ -685,6 +778,12 @@
     <t>400348</t>
   </si>
   <si>
+    <t>Royce</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Royce. Thank you, Mr. Chairman. I appreciate that.    I guess the real surprise here is just how much money we are talking about in terms of revenues to these governments in the Western hemisphere, and across the developing world. You are talking about hundreds and hundreds of billions of dollars in terms of helping us balance our books and helping those governments as well.    So I think civil society, if it was really focused on just how much money you are talking about here, would bolt upright in terms of trying to figure out a structure in which to capture this information in order to try to capture the revenue flows back to the governments related to this.    The World Customs Organization, is that the entity that we should consider may be the platform for enforcement if we were to work internationally or is it the OECD? Is it their financial action task force that has that 40 plus 9 recommendations?    Is there a way to maybe incorporate this into that entity with the understanding there of how much we are talking about in terms of potential revenue? And therefore, that certainly could compensate for taking on that added burden on the part of that institution.    Where would you begin, and first, what would be the practical problems with establishing such a platform? And second, what would be the political problems maybe in doing it?</t>
   </si>
   <si>
@@ -707,6 +806,12 @@
   </si>
   <si>
     <t>400271</t>
+  </si>
+  <si>
+    <t>Meeks</t>
+  </si>
+  <si>
+    <t>Gregory</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Meeks. Thank you, Mr. Chairman. And thank you to the panelists. I have been listening to some of the questions and some of your testimony. And this is complicated.    I guess I will direct my first question to Mr. Bock because--and just thinking about it, what makes this hard, I think, to fight against TBML, among other things, and I--another reason why I wanted to make sure I come down, I am a big guy who believes in trade.    And the world is much smaller and interconnected when we are trading back and forth. We enter into trade agreements and you look at the enormous volume of trade flows which obscures individual transactions and provides abundant opportunity for criminal organizations to transfer value across borders.    The complexity of it, as I think that you were just talking about, associated with foreign exchange transactions and then the additional complexity that can arise from the practice of co-mingling illicit funds with the cash flows of legitimate businesses and then the limited recourse to verification procedures or exchange customs data between countries.    So, when I look at how complicated all these challenges are, it becomes clear. And then, what you were just talking about on our side, looking on our side of what we can do in our government, but wouldn't it seem that there should be--we are doing some kind of international harmonization with cross-border systems of verification and data exchange?    Do you see any harmonization of international cooperation to combat TBML?</t>
@@ -1154,7 +1259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H239"/>
+  <dimension ref="A1:I239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,7 +1267,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1184,5717 +1289,6704 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
       <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
       <c r="H27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
       <c r="H35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G36" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
       <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
       <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G40" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
       <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G42" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
       <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G44" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
       <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
       <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G48" t="s">
+        <v>42</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
       <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
       <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
       <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>27</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G54" t="s">
+        <v>39</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
       <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G56" t="s">
+        <v>48</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
       <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>27</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>27</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G61" t="s">
+        <v>39</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>27</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G62" t="s">
+        <v>42</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>27</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G63" t="s">
+        <v>48</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>27</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G64" t="s">
+        <v>48</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>81</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G66" t="s">
+        <v>97</v>
+      </c>
       <c r="H66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>27</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G67" t="s">
+        <v>48</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>81</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G68" t="s">
+        <v>97</v>
+      </c>
       <c r="H68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>27</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G69" t="s">
+        <v>39</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>81</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G70" t="s">
+        <v>97</v>
+      </c>
       <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>27</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G71" t="s">
+        <v>39</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>81</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G72" t="s">
+        <v>97</v>
+      </c>
       <c r="H72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>27</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G73" t="s">
+        <v>39</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>81</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G74" t="s">
+        <v>97</v>
+      </c>
       <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>27</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G75" t="s">
+        <v>39</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>81</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G76" t="s">
+        <v>97</v>
+      </c>
       <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>27</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>81</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G78" t="s">
+        <v>97</v>
+      </c>
       <c r="H78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>27</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>81</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G80" t="s">
+        <v>97</v>
+      </c>
       <c r="H80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>27</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G81" t="s">
+        <v>48</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>81</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G82" t="s">
+        <v>97</v>
+      </c>
       <c r="H82" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>27</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G83" t="s">
+        <v>39</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>81</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G84" t="s">
+        <v>97</v>
+      </c>
       <c r="H84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>27</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G85" t="s">
+        <v>39</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>81</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G86" t="s">
+        <v>97</v>
+      </c>
       <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>27</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G87" t="s">
+        <v>39</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>81</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G88" t="s">
+        <v>97</v>
+      </c>
       <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>106</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G90" t="s">
+        <v>124</v>
+      </c>
       <c r="H90" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>27</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G91" t="s">
+        <v>39</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>106</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G92" t="s">
+        <v>124</v>
+      </c>
       <c r="H92" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I92" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>27</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G93" t="s">
+        <v>42</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>106</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G94" t="s">
+        <v>124</v>
+      </c>
       <c r="H94" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I94" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>27</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G95" t="s">
+        <v>42</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>106</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G96" t="s">
+        <v>124</v>
+      </c>
       <c r="H96" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>27</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G97" t="s">
+        <v>42</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>106</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G98" t="s">
+        <v>124</v>
+      </c>
       <c r="H98" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I98" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>27</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G99" t="s">
+        <v>42</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>106</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G100" t="s">
+        <v>124</v>
+      </c>
       <c r="H100" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I100" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>27</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G101" t="s">
+        <v>42</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>106</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G102" t="s">
+        <v>124</v>
+      </c>
       <c r="H102" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I102" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>27</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G103" t="s">
+        <v>39</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
       <c r="H104" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G105" t="s">
+        <v>32</v>
+      </c>
       <c r="H105" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I105" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>27</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G106" t="s">
+        <v>39</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G107" t="s">
+        <v>32</v>
+      </c>
       <c r="H107" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I107" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>27</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G108" t="s">
+        <v>39</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G109" t="s">
+        <v>32</v>
+      </c>
       <c r="H109" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I109" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>27</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G110" t="s">
+        <v>45</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>22</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G111" t="s">
+        <v>32</v>
+      </c>
       <c r="H111" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I111" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>27</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G112" t="s">
+        <v>45</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G113" t="s">
+        <v>32</v>
+      </c>
       <c r="H113" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I113" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>27</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G114" t="s">
+        <v>45</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>27</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G115" t="s">
+        <v>48</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G116" t="s">
+        <v>32</v>
+      </c>
       <c r="H116" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I116" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>27</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G117" t="s">
+        <v>45</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>22</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G118" t="s">
+        <v>32</v>
+      </c>
       <c r="H118" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I118" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
       <c r="H119" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>137</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G120" t="s">
+        <v>157</v>
+      </c>
       <c r="H120" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I120" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>27</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G121" t="s">
+        <v>39</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>137</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G122" t="s">
+        <v>157</v>
+      </c>
       <c r="H122" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I122" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>27</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G123" t="s">
+        <v>39</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>27</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G124" t="s">
+        <v>42</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>137</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G125" t="s">
+        <v>157</v>
+      </c>
       <c r="H125" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I125" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>27</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G126" t="s">
+        <v>48</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>137</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G127" t="s">
+        <v>157</v>
+      </c>
       <c r="H127" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I127" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>27</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G128" t="s">
+        <v>42</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>137</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G129" t="s">
+        <v>157</v>
+      </c>
       <c r="H129" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I129" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>13</v>
+      </c>
       <c r="H130" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>27</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G131" t="s">
+        <v>39</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>13</v>
+      </c>
       <c r="H132" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>151</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>172</v>
+      </c>
+      <c r="G133" t="s">
+        <v>173</v>
+      </c>
       <c r="H133" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I133" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>27</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G134" t="s">
+        <v>39</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>151</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>172</v>
+      </c>
+      <c r="G135" t="s">
+        <v>173</v>
+      </c>
       <c r="H135" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I135" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>27</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G136" t="s">
+        <v>45</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>151</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>172</v>
+      </c>
+      <c r="G137" t="s">
+        <v>173</v>
+      </c>
       <c r="H137" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I137" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>27</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G138" t="s">
+        <v>48</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>151</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>172</v>
+      </c>
+      <c r="G139" t="s">
+        <v>173</v>
+      </c>
       <c r="H139" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I139" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>27</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G140" t="s">
+        <v>48</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>151</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>172</v>
+      </c>
+      <c r="G141" t="s">
+        <v>173</v>
+      </c>
       <c r="H141" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I141" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>27</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G142" t="s">
+        <v>39</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>151</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>172</v>
+      </c>
+      <c r="G143" t="s">
+        <v>173</v>
+      </c>
       <c r="H143" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I143" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
       <c r="H144" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>164</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>187</v>
+      </c>
+      <c r="G145" t="s">
+        <v>188</v>
+      </c>
       <c r="H145" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>27</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G146" t="s">
+        <v>39</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>164</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>187</v>
+      </c>
+      <c r="G147" t="s">
+        <v>188</v>
+      </c>
       <c r="H147" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I147" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>27</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G148" t="s">
+        <v>39</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>164</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>187</v>
+      </c>
+      <c r="G149" t="s">
+        <v>188</v>
+      </c>
       <c r="H149" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I149" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>27</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G150" t="s">
+        <v>48</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>164</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>187</v>
+      </c>
+      <c r="G151" t="s">
+        <v>188</v>
+      </c>
       <c r="H151" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I151" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>27</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G152" t="s">
+        <v>48</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>164</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>187</v>
+      </c>
+      <c r="G153" t="s">
+        <v>188</v>
+      </c>
       <c r="H153" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I153" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>27</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G154" t="s">
+        <v>48</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>164</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>187</v>
+      </c>
+      <c r="G155" t="s">
+        <v>188</v>
+      </c>
       <c r="H155" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I155" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
       <c r="H156" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I156" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>177</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>202</v>
+      </c>
+      <c r="G157" t="s">
+        <v>203</v>
+      </c>
       <c r="H157" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>204</v>
+      </c>
+      <c r="I157" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>27</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G158" t="s">
+        <v>39</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>177</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>202</v>
+      </c>
+      <c r="G159" t="s">
+        <v>203</v>
+      </c>
       <c r="H159" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>204</v>
+      </c>
+      <c r="I159" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>27</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G160" t="s">
+        <v>39</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>177</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>202</v>
+      </c>
+      <c r="G161" t="s">
+        <v>203</v>
+      </c>
       <c r="H161" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>204</v>
+      </c>
+      <c r="I161" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>27</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G162" t="s">
+        <v>48</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>177</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>202</v>
+      </c>
+      <c r="G163" t="s">
+        <v>203</v>
+      </c>
       <c r="H163" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>204</v>
+      </c>
+      <c r="I163" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>27</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G164" t="s">
+        <v>48</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>177</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>202</v>
+      </c>
+      <c r="G165" t="s">
+        <v>203</v>
+      </c>
       <c r="H165" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>204</v>
+      </c>
+      <c r="I165" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>27</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G166" t="s">
+        <v>48</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>177</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>202</v>
+      </c>
+      <c r="G167" t="s">
+        <v>203</v>
+      </c>
       <c r="H167" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>204</v>
+      </c>
+      <c r="I167" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>11</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G168" t="s">
+        <v>13</v>
+      </c>
       <c r="H168" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I168" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>190</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>217</v>
+      </c>
+      <c r="G169" t="s">
+        <v>218</v>
+      </c>
       <c r="H169" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>219</v>
+      </c>
+      <c r="I169" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>27</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G170" t="s">
+        <v>45</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>190</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>217</v>
+      </c>
+      <c r="G171" t="s">
+        <v>218</v>
+      </c>
       <c r="H171" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>219</v>
+      </c>
+      <c r="I171" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>27</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G172" t="s">
+        <v>45</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>190</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>217</v>
+      </c>
+      <c r="G173" t="s">
+        <v>218</v>
+      </c>
       <c r="H173" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>219</v>
+      </c>
+      <c r="I173" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>27</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G174" t="s">
+        <v>48</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>190</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>217</v>
+      </c>
+      <c r="G175" t="s">
+        <v>218</v>
+      </c>
       <c r="H175" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>219</v>
+      </c>
+      <c r="I175" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>27</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G176" t="s">
+        <v>48</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>190</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>217</v>
+      </c>
+      <c r="G177" t="s">
+        <v>218</v>
+      </c>
       <c r="H177" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>219</v>
+      </c>
+      <c r="I177" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>11</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G178" t="s">
+        <v>13</v>
+      </c>
       <c r="H178" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I178" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>201</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>230</v>
+      </c>
+      <c r="G179" t="s">
+        <v>231</v>
+      </c>
       <c r="H179" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>232</v>
+      </c>
+      <c r="I179" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>27</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G180" t="s">
+        <v>39</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>201</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>230</v>
+      </c>
+      <c r="G181" t="s">
+        <v>231</v>
+      </c>
       <c r="H181" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>232</v>
+      </c>
+      <c r="I181" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>27</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G182" t="s">
+        <v>39</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>201</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>230</v>
+      </c>
+      <c r="G183" t="s">
+        <v>231</v>
+      </c>
       <c r="H183" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>232</v>
+      </c>
+      <c r="I183" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>27</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G184" t="s">
+        <v>39</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>201</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>230</v>
+      </c>
+      <c r="G185" t="s">
+        <v>231</v>
+      </c>
       <c r="H185" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>232</v>
+      </c>
+      <c r="I185" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>27</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G186" t="s">
+        <v>42</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>201</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>230</v>
+      </c>
+      <c r="G187" t="s">
+        <v>231</v>
+      </c>
       <c r="H187" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>232</v>
+      </c>
+      <c r="I187" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>27</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G188" t="s">
+        <v>48</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>201</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>230</v>
+      </c>
+      <c r="G189" t="s">
+        <v>231</v>
+      </c>
       <c r="H189" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>232</v>
+      </c>
+      <c r="I189" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>27</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G190" t="s">
+        <v>39</v>
+      </c>
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>201</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>230</v>
+      </c>
+      <c r="G191" t="s">
+        <v>231</v>
+      </c>
       <c r="H191" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>232</v>
+      </c>
+      <c r="I191" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>27</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G192" t="s">
+        <v>42</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>201</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>230</v>
+      </c>
+      <c r="G193" t="s">
+        <v>231</v>
+      </c>
       <c r="H193" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>232</v>
+      </c>
+      <c r="I193" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>27</v>
-      </c>
-      <c r="G194" t="s"/>
-      <c r="H194" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G194" t="s">
+        <v>42</v>
+      </c>
+      <c r="H194" t="s"/>
+      <c r="I194" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>201</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>230</v>
+      </c>
+      <c r="G195" t="s">
+        <v>231</v>
+      </c>
       <c r="H195" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>232</v>
+      </c>
+      <c r="I195" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>27</v>
-      </c>
-      <c r="G196" t="s"/>
-      <c r="H196" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G196" t="s">
+        <v>42</v>
+      </c>
+      <c r="H196" t="s"/>
+      <c r="I196" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>201</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>230</v>
+      </c>
+      <c r="G197" t="s">
+        <v>231</v>
+      </c>
       <c r="H197" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>232</v>
+      </c>
+      <c r="I197" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>11</v>
-      </c>
-      <c r="G198" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G198" t="s">
+        <v>13</v>
+      </c>
       <c r="H198" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I198" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>222</v>
-      </c>
-      <c r="G199" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G199" t="s">
+        <v>254</v>
+      </c>
       <c r="H199" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>255</v>
+      </c>
+      <c r="I199" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>27</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G200" t="s">
+        <v>48</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>222</v>
-      </c>
-      <c r="G201" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G201" t="s">
+        <v>254</v>
+      </c>
       <c r="H201" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>255</v>
+      </c>
+      <c r="I201" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>27</v>
-      </c>
-      <c r="G202" t="s"/>
-      <c r="H202" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G202" t="s">
+        <v>42</v>
+      </c>
+      <c r="H202" t="s"/>
+      <c r="I202" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>27</v>
-      </c>
-      <c r="G203" t="s"/>
-      <c r="H203" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G203" t="s">
+        <v>39</v>
+      </c>
+      <c r="H203" t="s"/>
+      <c r="I203" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>222</v>
-      </c>
-      <c r="G204" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G204" t="s">
+        <v>254</v>
+      </c>
       <c r="H204" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>255</v>
+      </c>
+      <c r="I204" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>11</v>
-      </c>
-      <c r="G205" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G205" t="s">
+        <v>13</v>
+      </c>
       <c r="H205" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I205" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>230</v>
-      </c>
-      <c r="G206" t="s"/>
+        <v>263</v>
+      </c>
+      <c r="G206" t="s">
+        <v>264</v>
+      </c>
       <c r="H206" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>265</v>
+      </c>
+      <c r="I206" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>27</v>
-      </c>
-      <c r="G207" t="s"/>
-      <c r="H207" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G207" t="s">
+        <v>42</v>
+      </c>
+      <c r="H207" t="s"/>
+      <c r="I207" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>230</v>
-      </c>
-      <c r="G208" t="s"/>
+        <v>263</v>
+      </c>
+      <c r="G208" t="s">
+        <v>264</v>
+      </c>
       <c r="H208" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>265</v>
+      </c>
+      <c r="I208" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>27</v>
-      </c>
-      <c r="G209" t="s"/>
-      <c r="H209" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G209" t="s">
+        <v>42</v>
+      </c>
+      <c r="H209" t="s"/>
+      <c r="I209" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>230</v>
-      </c>
-      <c r="G210" t="s"/>
+        <v>263</v>
+      </c>
+      <c r="G210" t="s">
+        <v>264</v>
+      </c>
       <c r="H210" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>265</v>
+      </c>
+      <c r="I210" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>27</v>
-      </c>
-      <c r="G211" t="s"/>
-      <c r="H211" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G211" t="s">
+        <v>48</v>
+      </c>
+      <c r="H211" t="s"/>
+      <c r="I211" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>230</v>
-      </c>
-      <c r="G212" t="s"/>
+        <v>263</v>
+      </c>
+      <c r="G212" t="s">
+        <v>264</v>
+      </c>
       <c r="H212" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>265</v>
+      </c>
+      <c r="I212" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>27</v>
-      </c>
-      <c r="G213" t="s"/>
-      <c r="H213" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G213" t="s">
+        <v>42</v>
+      </c>
+      <c r="H213" t="s"/>
+      <c r="I213" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>27</v>
-      </c>
-      <c r="G214" t="s"/>
-      <c r="H214" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G214" t="s">
+        <v>42</v>
+      </c>
+      <c r="H214" t="s"/>
+      <c r="I214" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>230</v>
-      </c>
-      <c r="G215" t="s"/>
+        <v>263</v>
+      </c>
+      <c r="G215" t="s">
+        <v>264</v>
+      </c>
       <c r="H215" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>265</v>
+      </c>
+      <c r="I215" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>27</v>
-      </c>
-      <c r="G216" t="s"/>
-      <c r="H216" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G216" t="s">
+        <v>48</v>
+      </c>
+      <c r="H216" t="s"/>
+      <c r="I216" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F217" t="s">
-        <v>11</v>
-      </c>
-      <c r="G217" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G217" t="s">
+        <v>13</v>
+      </c>
       <c r="H217" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I217" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F218" t="s">
-        <v>13</v>
-      </c>
-      <c r="G218" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G218" t="s">
+        <v>17</v>
+      </c>
       <c r="H218" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I218" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F219" t="s">
-        <v>27</v>
-      </c>
-      <c r="G219" t="s"/>
-      <c r="H219" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G219" t="s">
+        <v>48</v>
+      </c>
+      <c r="H219" t="s"/>
+      <c r="I219" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>13</v>
-      </c>
-      <c r="G220" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G220" t="s">
+        <v>17</v>
+      </c>
       <c r="H220" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I220" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>27</v>
-      </c>
-      <c r="G221" t="s"/>
-      <c r="H221" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G221" t="s">
+        <v>48</v>
+      </c>
+      <c r="H221" t="s"/>
+      <c r="I221" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F222" t="s">
-        <v>13</v>
-      </c>
-      <c r="G222" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G222" t="s">
+        <v>17</v>
+      </c>
       <c r="H222" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I222" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F223" t="s">
-        <v>27</v>
-      </c>
-      <c r="G223" t="s"/>
-      <c r="H223" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G223" t="s">
+        <v>48</v>
+      </c>
+      <c r="H223" t="s"/>
+      <c r="I223" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F224" t="s">
-        <v>13</v>
-      </c>
-      <c r="G224" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G224" t="s">
+        <v>17</v>
+      </c>
       <c r="H224" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I224" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F225" t="s">
-        <v>27</v>
-      </c>
-      <c r="G225" t="s"/>
-      <c r="H225" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G225" t="s">
+        <v>48</v>
+      </c>
+      <c r="H225" t="s"/>
+      <c r="I225" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E226" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F226" t="s">
-        <v>13</v>
-      </c>
-      <c r="G226" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G226" t="s">
+        <v>17</v>
+      </c>
       <c r="H226" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I226" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E227" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F227" t="s">
-        <v>27</v>
-      </c>
-      <c r="G227" t="s"/>
-      <c r="H227" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G227" t="s">
+        <v>48</v>
+      </c>
+      <c r="H227" t="s"/>
+      <c r="I227" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E228" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F228" t="s">
-        <v>13</v>
-      </c>
-      <c r="G228" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G228" t="s">
+        <v>17</v>
+      </c>
       <c r="H228" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I228" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E229" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F229" t="s">
-        <v>11</v>
-      </c>
-      <c r="G229" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G229" t="s">
+        <v>13</v>
+      </c>
       <c r="H229" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I229" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E230" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F230" t="s">
-        <v>19</v>
-      </c>
-      <c r="G230" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G230" t="s">
+        <v>27</v>
+      </c>
       <c r="H230" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I230" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E231" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F231" t="s">
-        <v>27</v>
-      </c>
-      <c r="G231" t="s"/>
-      <c r="H231" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G231" t="s">
+        <v>45</v>
+      </c>
+      <c r="H231" t="s"/>
+      <c r="I231" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E232" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F232" t="s">
-        <v>19</v>
-      </c>
-      <c r="G232" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G232" t="s">
+        <v>27</v>
+      </c>
       <c r="H232" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I232" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E233" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F233" t="s">
-        <v>27</v>
-      </c>
-      <c r="G233" t="s"/>
-      <c r="H233" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G233" t="s">
+        <v>42</v>
+      </c>
+      <c r="H233" t="s"/>
+      <c r="I233" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E234" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F234" t="s">
-        <v>19</v>
-      </c>
-      <c r="G234" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G234" t="s">
+        <v>27</v>
+      </c>
       <c r="H234" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I234" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E235" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F235" t="s">
-        <v>27</v>
-      </c>
-      <c r="G235" t="s"/>
-      <c r="H235" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G235" t="s">
+        <v>42</v>
+      </c>
+      <c r="H235" t="s"/>
+      <c r="I235" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E236" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F236" t="s">
-        <v>19</v>
-      </c>
-      <c r="G236" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G236" t="s">
+        <v>27</v>
+      </c>
       <c r="H236" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I236" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E237" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F237" t="s">
-        <v>27</v>
-      </c>
-      <c r="G237" t="s"/>
-      <c r="H237" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G237" t="s">
+        <v>42</v>
+      </c>
+      <c r="H237" t="s"/>
+      <c r="I237" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E238" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F238" t="s">
-        <v>19</v>
-      </c>
-      <c r="G238" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G238" t="s">
+        <v>27</v>
+      </c>
       <c r="H238" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I238" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E239" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F239" t="s">
-        <v>11</v>
-      </c>
-      <c r="G239" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G239" t="s">
+        <v>13</v>
+      </c>
       <c r="H239" t="s">
-        <v>263</v>
+        <v>14</v>
+      </c>
+      <c r="I239" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
